--- a/fuentes/contenidos/grado07/guion05/SolicitudGrafica LE_07_05_REC360.xlsx
+++ b/fuentes/contenidos/grado07/guion05/SolicitudGrafica LE_07_05_REC360.xlsx
@@ -602,10 +602,10 @@
     <t>Ejercita la interpretación de imágenes</t>
   </si>
   <si>
-    <t>Favor intervenir la obra de Van Gogh de la siguiente manera: En la parte donde aparecen los dos personajes caminando, encima de sus cabezas, ubicar un número 1. En la parte superior izquierda, donde están los árboles, ubicar el número 2. En el centro del cuadro, ubicar el número 3. Al lado derecho del tres, encima de la línea negra, ubicar el número 4. Al lado de los personajes, a la altura de sus piernas del lado derecho, ubicar el número 5.</t>
-  </si>
-  <si>
     <t>Luis Felipe Pertuz</t>
+  </si>
+  <si>
+    <t>Favor intervenir la obra de Van Gogh de la siguiente manera: En la parte donde aparecen los dos personajes caminando, encima de sus cabezas, ubicar un número 1. En la parte superior izquierda, donde están los árboles, ubicar el número 2. En el centro del cuadro, ubicar el número 3. Al lado derecho del tres, encima de la línea negra, ubicar el número 4. Al lado de los personajes, a la altura de sus piernas del lado derecho, ubicar el número 5. Al lado de la luna el 6.</t>
   </si>
 </sst>
 </file>
@@ -2382,9 +2382,9 @@
   <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5:D5"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2523,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="88" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D5" s="89"/>
       <c r="E5" s="5"/>
@@ -2670,7 +2670,7 @@
         <v>M10B</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" ht="182">
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="195">
       <c r="A10" s="12" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="J10" s="62"/>
       <c r="K10" s="63" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O10" s="2" t="str">
         <f>'Definición técnica de imagenes'!A12</f>
@@ -5852,7 +5852,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
